--- a/Code/Results/Cases/Case_1_78/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_78/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.93000724911195</v>
+        <v>19.48051789516684</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.06298575605037</v>
+        <v>8.371820453742533</v>
       </c>
       <c r="E2">
-        <v>48.12160381796335</v>
+        <v>27.1116297535703</v>
       </c>
       <c r="F2">
-        <v>65.41961799612075</v>
+        <v>46.89940864320836</v>
       </c>
       <c r="G2">
-        <v>1.92729884745273</v>
+        <v>3.667457791298832</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>14.22559412976305</v>
+        <v>11.71159954251972</v>
       </c>
       <c r="M2">
-        <v>17.38245526575016</v>
+        <v>18.07308932590204</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.7006838232808</v>
+        <v>19.2342359464687</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.431536852144582</v>
+        <v>8.321892989255966</v>
       </c>
       <c r="E3">
-        <v>44.57535508031993</v>
+        <v>25.55785238654527</v>
       </c>
       <c r="F3">
-        <v>60.01106170253924</v>
+        <v>45.86389900863831</v>
       </c>
       <c r="G3">
-        <v>1.959423629366104</v>
+        <v>3.67617734045005</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.14800379793269</v>
+        <v>11.51769649563437</v>
       </c>
       <c r="M3">
-        <v>16.06769478943469</v>
+        <v>17.92457234033711</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.93296140103941</v>
+        <v>19.08666690820657</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.063302256163068</v>
+        <v>8.295644523553619</v>
       </c>
       <c r="E4">
-        <v>42.3533589450826</v>
+        <v>24.55223641622176</v>
       </c>
       <c r="F4">
-        <v>56.72883404552736</v>
+        <v>45.24262715832337</v>
       </c>
       <c r="G4">
-        <v>1.978761629537703</v>
+        <v>3.681779998004051</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.46676551637579</v>
+        <v>11.40021730890678</v>
       </c>
       <c r="M4">
-        <v>15.23333021134092</v>
+        <v>17.83722668216217</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.61663740621261</v>
+        <v>19.02751445644548</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.917456655036438</v>
+        <v>8.286047885664685</v>
       </c>
       <c r="E5">
-        <v>41.43385863286582</v>
+        <v>24.12960347405355</v>
       </c>
       <c r="F5">
-        <v>55.45493115559169</v>
+        <v>44.99345751862929</v>
       </c>
       <c r="G5">
-        <v>1.986590210620152</v>
+        <v>3.684126138855605</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.18354514166971</v>
+        <v>11.35279867377712</v>
       </c>
       <c r="M5">
-        <v>14.88577505734715</v>
+        <v>17.80262841496755</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.56389927496514</v>
+        <v>19.01775349289236</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.893477630804427</v>
+        <v>8.284520502494679</v>
       </c>
       <c r="E6">
-        <v>41.28026095228994</v>
+        <v>24.05865506880773</v>
       </c>
       <c r="F6">
-        <v>55.24351768277221</v>
+        <v>44.95233491875253</v>
       </c>
       <c r="G6">
-        <v>1.987888144038407</v>
+        <v>3.684519532491883</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.1361606081501</v>
+        <v>11.34495402662495</v>
       </c>
       <c r="M6">
-        <v>14.82758958460279</v>
+        <v>17.79694435855617</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.92870956367891</v>
+        <v>19.08586509169778</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.061319018286095</v>
+        <v>8.295510659751043</v>
       </c>
       <c r="E7">
-        <v>42.34101819228032</v>
+        <v>24.54658840587652</v>
       </c>
       <c r="F7">
-        <v>56.7116439796909</v>
+        <v>45.2392501041525</v>
       </c>
       <c r="G7">
-        <v>1.978867365882991</v>
+        <v>3.681811383157545</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.46296941652775</v>
+        <v>11.39957588525881</v>
       </c>
       <c r="M7">
-        <v>15.22867436471576</v>
+        <v>17.83675600871624</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.50862113889738</v>
+        <v>19.39488237739787</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.84072871208377</v>
+        <v>8.353686478413051</v>
       </c>
       <c r="E8">
-        <v>46.90616611134642</v>
+        <v>26.58666542016152</v>
       </c>
       <c r="F8">
-        <v>63.54919852107618</v>
+        <v>46.53955949990327</v>
       </c>
       <c r="G8">
-        <v>1.938486837451621</v>
+        <v>3.670412919236955</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.85764256641268</v>
+        <v>11.64444927417863</v>
       </c>
       <c r="M8">
-        <v>16.93425483070833</v>
+        <v>18.02110074359832</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.85520463263384</v>
+        <v>20.02686358177789</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.77948580552498</v>
+        <v>8.502987991414573</v>
       </c>
       <c r="E9">
-        <v>55.68909759987645</v>
+        <v>30.17367589717518</v>
       </c>
       <c r="F9">
-        <v>77.42112650171762</v>
+        <v>49.1892396624972</v>
       </c>
       <c r="G9">
-        <v>1.85332680508903</v>
+        <v>3.650014360827535</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>16.48016497793732</v>
+        <v>12.13460710445433</v>
       </c>
       <c r="M9">
-        <v>20.10932363326859</v>
+        <v>18.4117494322087</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.3899004120158</v>
+        <v>20.50301217798077</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.50091706800918</v>
+        <v>8.634316422876861</v>
       </c>
       <c r="E10">
-        <v>62.46958614879996</v>
+        <v>32.55327785132847</v>
       </c>
       <c r="F10">
-        <v>88.63156518074213</v>
+        <v>51.17608034056897</v>
       </c>
       <c r="G10">
-        <v>1.780477613133025</v>
+        <v>3.636189661085651</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>18.43512793389117</v>
+        <v>12.49741517452095</v>
       </c>
       <c r="M10">
-        <v>22.43941464657159</v>
+        <v>18.71462435593434</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.57797650482037</v>
+        <v>20.72133740082091</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>13.38816959931014</v>
+        <v>8.698743139515543</v>
       </c>
       <c r="E11">
-        <v>65.83338253543364</v>
+        <v>33.57995677902237</v>
       </c>
       <c r="F11">
-        <v>94.32739897166832</v>
+        <v>52.08442348445992</v>
       </c>
       <c r="G11">
-        <v>1.741959476590525</v>
+        <v>3.630146423916453</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>19.37569899317979</v>
+        <v>12.66235708832335</v>
       </c>
       <c r="M11">
-        <v>23.5452141696481</v>
+        <v>18.85542788416213</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.04024016802732</v>
+        <v>20.80418841715914</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13.75099854618106</v>
+        <v>8.723808504256857</v>
       </c>
       <c r="E12">
-        <v>67.18608996430881</v>
+        <v>33.96069954985811</v>
       </c>
       <c r="F12">
-        <v>96.63937482968346</v>
+        <v>52.42870447471233</v>
       </c>
       <c r="G12">
-        <v>1.726021507363941</v>
+        <v>3.627892821621618</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>19.74746384952004</v>
+        <v>12.72474637293058</v>
       </c>
       <c r="M12">
-        <v>23.97893320042174</v>
+        <v>18.90914438707884</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.93993907490437</v>
+        <v>20.78633826845364</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13.6713438837844</v>
+        <v>8.718380610518606</v>
       </c>
       <c r="E13">
-        <v>66.89020598850404</v>
+        <v>33.87905734165221</v>
       </c>
       <c r="F13">
-        <v>96.1326919488572</v>
+        <v>52.35454876547622</v>
       </c>
       <c r="G13">
-        <v>1.729529666184363</v>
+        <v>3.628376633544483</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>19.66648461573926</v>
+        <v>12.71131373322744</v>
       </c>
       <c r="M13">
-        <v>23.8846346925511</v>
+        <v>18.89755851109278</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.61569287127261</v>
+        <v>20.72815048268974</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>13.41737270231406</v>
+        <v>8.700791924942221</v>
       </c>
       <c r="E14">
-        <v>65.94273217264455</v>
+        <v>33.61144183786438</v>
       </c>
       <c r="F14">
-        <v>94.51386254997998</v>
+        <v>52.11274332883544</v>
       </c>
       <c r="G14">
-        <v>1.740680645957894</v>
+        <v>3.629960323281109</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>19.4058967457488</v>
+        <v>12.66749162075203</v>
       </c>
       <c r="M14">
-        <v>23.5805199669973</v>
+        <v>18.85983942814319</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.41902182984037</v>
+        <v>20.69252959727261</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>13.26584231727736</v>
+        <v>8.690105194673583</v>
       </c>
       <c r="E15">
-        <v>65.37441500262413</v>
+        <v>33.44647265833795</v>
       </c>
       <c r="F15">
-        <v>93.54561959906536</v>
+        <v>51.9646612913855</v>
       </c>
       <c r="G15">
-        <v>1.747308704806295</v>
+        <v>3.630934901556547</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>19.24868047934571</v>
+        <v>12.64063848857629</v>
       </c>
       <c r="M15">
-        <v>23.39656865245974</v>
+        <v>18.83678601371424</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.31345936593865</v>
+        <v>20.48877261577917</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12.44582880951819</v>
+        <v>8.630199850987509</v>
       </c>
       <c r="E16">
-        <v>62.25798145700763</v>
+        <v>32.48505749049276</v>
       </c>
       <c r="F16">
-        <v>88.2760054395138</v>
+        <v>51.11677956525328</v>
       </c>
       <c r="G16">
-        <v>1.782847565839489</v>
+        <v>3.636589503102231</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>18.37524690855785</v>
+        <v>12.48662894785714</v>
       </c>
       <c r="M16">
-        <v>22.36863882057994</v>
+        <v>18.70548016231989</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.64782202294813</v>
+        <v>20.36416411790059</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.97524202508203</v>
+        <v>8.594646661679782</v>
       </c>
       <c r="E17">
-        <v>60.43653227936286</v>
+        <v>31.88095201536541</v>
       </c>
       <c r="F17">
-        <v>85.22984066568446</v>
+        <v>50.59754263242407</v>
       </c>
       <c r="G17">
-        <v>1.802988888585622</v>
+        <v>3.640120999291869</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>17.85658490110988</v>
+        <v>12.39208251580396</v>
       </c>
       <c r="M17">
-        <v>21.75390511075259</v>
+        <v>18.62567621538975</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.26764806211291</v>
+        <v>20.29265899364379</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.71337792610166</v>
+        <v>8.574638819656819</v>
       </c>
       <c r="E18">
-        <v>59.41190872155374</v>
+        <v>31.52823283107745</v>
       </c>
       <c r="F18">
-        <v>83.52803897656767</v>
+        <v>50.29933591697647</v>
       </c>
       <c r="G18">
-        <v>1.81411601689136</v>
+        <v>3.642175377596887</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>17.56239808280416</v>
+        <v>12.33769559213155</v>
       </c>
       <c r="M18">
-        <v>21.40393758219412</v>
+        <v>18.58006203268981</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.13924778330831</v>
+        <v>20.26847937172811</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.62600331618765</v>
+        <v>8.567940447024895</v>
       </c>
       <c r="E19">
-        <v>59.06821402096156</v>
+        <v>31.40790644735333</v>
       </c>
       <c r="F19">
-        <v>82.95915863078336</v>
+        <v>50.19845521929516</v>
       </c>
       <c r="G19">
-        <v>1.81781585096744</v>
+        <v>3.642874946464544</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>17.46334478115436</v>
+        <v>12.31928177571648</v>
       </c>
       <c r="M19">
-        <v>21.28590424738314</v>
+        <v>18.56466827542605</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.71836695312258</v>
+        <v>20.37741220868882</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>12.02436864341034</v>
+        <v>8.598385706465558</v>
       </c>
       <c r="E20">
-        <v>60.62786046249333</v>
+        <v>31.94580394317965</v>
       </c>
       <c r="F20">
-        <v>85.54857401590978</v>
+        <v>50.65277278218166</v>
       </c>
       <c r="G20">
-        <v>1.800894955798874</v>
+        <v>3.639742672545044</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>17.91132982723916</v>
+        <v>12.40214821226334</v>
       </c>
       <c r="M20">
-        <v>21.81893019247916</v>
+        <v>18.6341420562018</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.71050366489413</v>
+        <v>20.74523743430164</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>13.49108987526455</v>
+        <v>8.705940061732949</v>
       </c>
       <c r="E21">
-        <v>66.21838983353268</v>
+        <v>33.69026518716237</v>
       </c>
       <c r="F21">
-        <v>94.98425796711494</v>
+        <v>52.18376161247288</v>
       </c>
       <c r="G21">
-        <v>1.737449401474454</v>
+        <v>3.629494213596526</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>19.48191006603548</v>
+        <v>12.68036558958858</v>
       </c>
       <c r="M21">
-        <v>23.66933307875309</v>
+        <v>18.87090795692928</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.09517275349626</v>
+        <v>20.98662610325524</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>14.62378749218151</v>
+        <v>8.780124887686853</v>
       </c>
       <c r="E22">
-        <v>70.39000048345255</v>
+        <v>34.78352148578163</v>
       </c>
       <c r="F22">
-        <v>102.1575369924991</v>
+        <v>53.18602108382894</v>
       </c>
       <c r="G22">
-        <v>1.687248954524765</v>
+        <v>3.622999096678653</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>20.61133064513258</v>
+        <v>12.86176072577585</v>
       </c>
       <c r="M22">
-        <v>24.97821933110447</v>
+        <v>19.02794608037353</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.34375203503932</v>
+        <v>20.85772483247966</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>13.99534935170231</v>
+        <v>8.740177233485626</v>
       </c>
       <c r="E23">
-        <v>68.09002830316857</v>
+        <v>34.20431755045924</v>
       </c>
       <c r="F23">
-        <v>98.19053961426694</v>
+        <v>52.65105069258339</v>
       </c>
       <c r="G23">
-        <v>1.71522780853448</v>
+        <v>3.626447266585689</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>19.993644390079</v>
+        <v>12.76500451766466</v>
       </c>
       <c r="M23">
-        <v>24.26497667155537</v>
+        <v>18.943934119604</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.68646621281139</v>
+        <v>20.37142232412719</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>12.00213216167232</v>
+        <v>8.596693937857903</v>
       </c>
       <c r="E24">
-        <v>60.54129304876133</v>
+        <v>31.9165012392876</v>
       </c>
       <c r="F24">
-        <v>85.40432468844489</v>
+        <v>50.62780224149947</v>
       </c>
       <c r="G24">
-        <v>1.801842997379876</v>
+        <v>3.639913639044776</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>17.8865676820362</v>
+        <v>12.3975976029239</v>
       </c>
       <c r="M24">
-        <v>21.78952210622523</v>
+        <v>18.6303138176638</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.92555685904058</v>
+        <v>19.85352579044729</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.19456427923832</v>
+        <v>8.458800465124556</v>
       </c>
       <c r="E25">
-        <v>53.29872933265386</v>
+        <v>29.24803874209861</v>
       </c>
       <c r="F25">
-        <v>73.56735624716526</v>
+        <v>48.4639083421573</v>
       </c>
       <c r="G25">
-        <v>1.87751061097523</v>
+        <v>3.655326512464335</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>15.77529498868378</v>
+        <v>12.00129330054927</v>
       </c>
       <c r="M25">
-        <v>19.26072686120913</v>
+        <v>18.30313995596493</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_78/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_78/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.48051789516684</v>
+        <v>19.93000724911195</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.371820453742533</v>
+        <v>9.062985756050388</v>
       </c>
       <c r="E2">
-        <v>27.1116297535703</v>
+        <v>48.12160381796329</v>
       </c>
       <c r="F2">
-        <v>46.89940864320836</v>
+        <v>65.41961799612095</v>
       </c>
       <c r="G2">
-        <v>3.667457791298832</v>
+        <v>1.92729884745273</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.71159954251972</v>
+        <v>14.22559412976311</v>
       </c>
       <c r="M2">
-        <v>18.07308932590204</v>
+        <v>17.38245526575021</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.2342359464687</v>
+        <v>18.7006838232808</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.321892989255966</v>
+        <v>8.431536852144578</v>
       </c>
       <c r="E3">
-        <v>25.55785238654527</v>
+        <v>44.57535508032023</v>
       </c>
       <c r="F3">
-        <v>45.86389900863831</v>
+        <v>60.01106170253955</v>
       </c>
       <c r="G3">
-        <v>3.67617734045005</v>
+        <v>1.959423629366108</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.51769649563437</v>
+        <v>13.14800379793269</v>
       </c>
       <c r="M3">
-        <v>17.92457234033711</v>
+        <v>16.06769478943474</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.08666690820657</v>
+        <v>17.93296140103941</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.295644523553619</v>
+        <v>8.063302256163043</v>
       </c>
       <c r="E4">
-        <v>24.55223641622176</v>
+        <v>42.35335894508274</v>
       </c>
       <c r="F4">
-        <v>45.24262715832337</v>
+        <v>56.72883404552726</v>
       </c>
       <c r="G4">
-        <v>3.681779998004051</v>
+        <v>1.978761629537436</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.40021730890678</v>
+        <v>12.46676551637588</v>
       </c>
       <c r="M4">
-        <v>17.83722668216217</v>
+        <v>15.23333021134094</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.02751445644548</v>
+        <v>17.61663740621262</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.286047885664685</v>
+        <v>7.917456655036472</v>
       </c>
       <c r="E5">
-        <v>24.12960347405355</v>
+        <v>41.43385863286571</v>
       </c>
       <c r="F5">
-        <v>44.99345751862929</v>
+        <v>55.45493115559188</v>
       </c>
       <c r="G5">
-        <v>3.684126138855605</v>
+        <v>1.986590210620155</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.35279867377712</v>
+        <v>12.18354514166976</v>
       </c>
       <c r="M5">
-        <v>17.80262841496755</v>
+        <v>14.88577505734719</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.01775349289236</v>
+        <v>17.56389927496512</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.284520502494679</v>
+        <v>7.893477630804393</v>
       </c>
       <c r="E6">
-        <v>24.05865506880773</v>
+        <v>41.28026095229011</v>
       </c>
       <c r="F6">
-        <v>44.95233491875253</v>
+        <v>55.24351768277202</v>
       </c>
       <c r="G6">
-        <v>3.684519532491883</v>
+        <v>1.987888144037886</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.34495402662495</v>
+        <v>12.13616060815009</v>
       </c>
       <c r="M6">
-        <v>17.79694435855617</v>
+        <v>14.82758958460282</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.08586509169778</v>
+        <v>17.92870956367891</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.295510659751043</v>
+        <v>8.06131901828611</v>
       </c>
       <c r="E7">
-        <v>24.54658840587652</v>
+        <v>42.34101819228079</v>
       </c>
       <c r="F7">
-        <v>45.2392501041525</v>
+        <v>56.71164397969113</v>
       </c>
       <c r="G7">
-        <v>3.681811383157545</v>
+        <v>1.978867365882991</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.39957588525881</v>
+        <v>12.46296941652782</v>
       </c>
       <c r="M7">
-        <v>17.83675600871624</v>
+        <v>15.22867436471581</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.39488237739787</v>
+        <v>19.50862113889739</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.353686478413051</v>
+        <v>8.840728712083724</v>
       </c>
       <c r="E8">
-        <v>26.58666542016152</v>
+        <v>46.9061661113464</v>
       </c>
       <c r="F8">
-        <v>46.53955949990327</v>
+        <v>63.54919852107606</v>
       </c>
       <c r="G8">
-        <v>3.670412919236955</v>
+        <v>1.938486837451366</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.64444927417863</v>
+        <v>13.85764256641272</v>
       </c>
       <c r="M8">
-        <v>18.02110074359832</v>
+        <v>16.93425483070829</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.02686358177789</v>
+        <v>22.85520463263389</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.502987991414573</v>
+        <v>10.77948580552512</v>
       </c>
       <c r="E9">
-        <v>30.17367589717518</v>
+        <v>55.68909759987669</v>
       </c>
       <c r="F9">
-        <v>49.1892396624972</v>
+        <v>77.42112650171831</v>
       </c>
       <c r="G9">
-        <v>3.650014360827535</v>
+        <v>1.853326805088913</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.13460710445433</v>
+        <v>16.4801649779374</v>
       </c>
       <c r="M9">
-        <v>18.4117494322087</v>
+        <v>20.10932363326866</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.50301217798077</v>
+        <v>25.38990041201589</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.634316422876861</v>
+        <v>12.50091706800928</v>
       </c>
       <c r="E10">
-        <v>32.55327785132847</v>
+        <v>62.46958614879984</v>
       </c>
       <c r="F10">
-        <v>51.17608034056897</v>
+        <v>88.6315651807421</v>
       </c>
       <c r="G10">
-        <v>3.636189661085651</v>
+        <v>1.780477613133029</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.49741517452095</v>
+        <v>18.43512793389115</v>
       </c>
       <c r="M10">
-        <v>18.71462435593434</v>
+        <v>22.43941464657163</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.72133740082091</v>
+        <v>26.57797650482034</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.698743139515543</v>
+        <v>13.38816959931013</v>
       </c>
       <c r="E11">
-        <v>33.57995677902237</v>
+        <v>65.83338253543374</v>
       </c>
       <c r="F11">
-        <v>52.08442348445992</v>
+        <v>94.32739897166815</v>
       </c>
       <c r="G11">
-        <v>3.630146423916453</v>
+        <v>1.74195947659052</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.66235708832335</v>
+        <v>19.37569899317973</v>
       </c>
       <c r="M11">
-        <v>18.85542788416213</v>
+        <v>23.54521416964804</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.80418841715914</v>
+        <v>27.04024016802738</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.723808504256857</v>
+        <v>13.75099854618094</v>
       </c>
       <c r="E12">
-        <v>33.96069954985811</v>
+        <v>67.18608996430892</v>
       </c>
       <c r="F12">
-        <v>52.42870447471233</v>
+        <v>96.63937482968346</v>
       </c>
       <c r="G12">
-        <v>3.627892821621618</v>
+        <v>1.726021507363941</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.72474637293058</v>
+        <v>19.74746384952006</v>
       </c>
       <c r="M12">
-        <v>18.90914438707884</v>
+        <v>23.97893320042179</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.78633826845364</v>
+        <v>26.93993907490441</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.718380610518606</v>
+        <v>13.67134388378453</v>
       </c>
       <c r="E13">
-        <v>33.87905734165221</v>
+        <v>66.89020598850394</v>
       </c>
       <c r="F13">
-        <v>52.35454876547622</v>
+        <v>96.13269194885704</v>
       </c>
       <c r="G13">
-        <v>3.628376633544483</v>
+        <v>1.729529666184219</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.71131373322744</v>
+        <v>19.66648461573921</v>
       </c>
       <c r="M13">
-        <v>18.89755851109278</v>
+        <v>23.88463469255111</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.72815048268974</v>
+        <v>26.61569287127262</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.700791924942221</v>
+        <v>13.41737270231423</v>
       </c>
       <c r="E14">
-        <v>33.61144183786438</v>
+        <v>65.94273217264504</v>
       </c>
       <c r="F14">
-        <v>52.11274332883544</v>
+        <v>94.51386254998077</v>
       </c>
       <c r="G14">
-        <v>3.629960323281109</v>
+        <v>1.740680645957953</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.66749162075203</v>
+        <v>19.40589674574895</v>
       </c>
       <c r="M14">
-        <v>18.85983942814319</v>
+        <v>23.5805199669974</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.69252959727261</v>
+        <v>26.41902182984042</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.690105194673583</v>
+        <v>13.26584231727733</v>
       </c>
       <c r="E15">
-        <v>33.44647265833795</v>
+        <v>65.37441500262412</v>
       </c>
       <c r="F15">
-        <v>51.9646612913855</v>
+        <v>93.54561959906567</v>
       </c>
       <c r="G15">
-        <v>3.630934901556547</v>
+        <v>1.747308704806221</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.64063848857629</v>
+        <v>19.24868047934579</v>
       </c>
       <c r="M15">
-        <v>18.83678601371424</v>
+        <v>23.39656865245983</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.48877261577917</v>
+        <v>25.31345936593871</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.630199850987509</v>
+        <v>12.44582880951839</v>
       </c>
       <c r="E16">
-        <v>32.48505749049276</v>
+        <v>62.25798145700768</v>
       </c>
       <c r="F16">
-        <v>51.11677956525328</v>
+        <v>88.27600543951415</v>
       </c>
       <c r="G16">
-        <v>3.636589503102231</v>
+        <v>1.782847565839479</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.48662894785714</v>
+        <v>18.37524690855783</v>
       </c>
       <c r="M16">
-        <v>18.70548016231989</v>
+        <v>22.36863882057996</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.36416411790059</v>
+        <v>24.64782202294815</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.594646661679782</v>
+        <v>11.97524202508193</v>
       </c>
       <c r="E17">
-        <v>31.88095201536541</v>
+        <v>60.43653227936288</v>
       </c>
       <c r="F17">
-        <v>50.59754263242407</v>
+        <v>85.22984066568429</v>
       </c>
       <c r="G17">
-        <v>3.640120999291869</v>
+        <v>1.802988888585745</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.39208251580396</v>
+        <v>17.85658490110982</v>
       </c>
       <c r="M17">
-        <v>18.62567621538975</v>
+        <v>21.75390511075254</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.29265899364379</v>
+        <v>24.26764806211301</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.574638819656819</v>
+        <v>11.71337792610185</v>
       </c>
       <c r="E18">
-        <v>31.52823283107745</v>
+        <v>59.41190872155423</v>
       </c>
       <c r="F18">
-        <v>50.29933591697647</v>
+        <v>83.52803897656884</v>
       </c>
       <c r="G18">
-        <v>3.642175377596887</v>
+        <v>1.814116016891217</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.33769559213155</v>
+        <v>17.56239808280425</v>
       </c>
       <c r="M18">
-        <v>18.58006203268981</v>
+        <v>21.40393758219426</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.26847937172811</v>
+        <v>24.13924778330828</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.567940447024895</v>
+        <v>11.62600331618766</v>
       </c>
       <c r="E19">
-        <v>31.40790644735333</v>
+        <v>59.06821402096146</v>
       </c>
       <c r="F19">
-        <v>50.19845521929516</v>
+        <v>82.95915863078329</v>
       </c>
       <c r="G19">
-        <v>3.642874946464544</v>
+        <v>1.817815850967301</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.31928177571648</v>
+        <v>17.46334478115431</v>
       </c>
       <c r="M19">
-        <v>18.56466827542605</v>
+        <v>21.2859042473831</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.37741220868882</v>
+        <v>24.71836695312261</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.598385706465558</v>
+        <v>12.02436864341041</v>
       </c>
       <c r="E20">
-        <v>31.94580394317965</v>
+        <v>60.62786046249357</v>
       </c>
       <c r="F20">
-        <v>50.65277278218166</v>
+        <v>85.54857401591003</v>
       </c>
       <c r="G20">
-        <v>3.639742672545044</v>
+        <v>1.800894955798878</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.40214821226334</v>
+        <v>17.91132982723911</v>
       </c>
       <c r="M20">
-        <v>18.6341420562018</v>
+        <v>21.81893019247917</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.74523743430164</v>
+        <v>26.71050366489403</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.705940061732949</v>
+        <v>13.49108987526441</v>
       </c>
       <c r="E21">
-        <v>33.69026518716237</v>
+        <v>66.2183898335323</v>
       </c>
       <c r="F21">
-        <v>52.18376161247288</v>
+        <v>94.98425796711393</v>
       </c>
       <c r="G21">
-        <v>3.629494213596526</v>
+        <v>1.737449401474705</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.68036558958858</v>
+        <v>19.48191006603534</v>
       </c>
       <c r="M21">
-        <v>18.87090795692928</v>
+        <v>23.66933307875297</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.98662610325524</v>
+        <v>28.09517275349621</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.780124887686853</v>
+        <v>14.62378749218144</v>
       </c>
       <c r="E22">
-        <v>34.78352148578163</v>
+        <v>70.39000048345223</v>
       </c>
       <c r="F22">
-        <v>53.18602108382894</v>
+        <v>102.1575369924987</v>
       </c>
       <c r="G22">
-        <v>3.622999096678653</v>
+        <v>1.687248954524696</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.86176072577585</v>
+        <v>20.61133064513258</v>
       </c>
       <c r="M22">
-        <v>19.02794608037353</v>
+        <v>24.97821933110442</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.85772483247966</v>
+        <v>27.34375203503928</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.740177233485626</v>
+        <v>13.99534935170216</v>
       </c>
       <c r="E23">
-        <v>34.20431755045924</v>
+        <v>68.09002830316835</v>
       </c>
       <c r="F23">
-        <v>52.65105069258339</v>
+        <v>98.19053961426646</v>
       </c>
       <c r="G23">
-        <v>3.626447266585689</v>
+        <v>1.715227808534433</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.76500451766466</v>
+        <v>19.99364439007895</v>
       </c>
       <c r="M23">
-        <v>18.943934119604</v>
+        <v>24.26497667155532</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.37142232412719</v>
+        <v>24.68646621281139</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.596693937857903</v>
+        <v>12.00213216167217</v>
       </c>
       <c r="E24">
-        <v>31.9165012392876</v>
+        <v>60.54129304876103</v>
       </c>
       <c r="F24">
-        <v>50.62780224149947</v>
+        <v>85.40432468844433</v>
       </c>
       <c r="G24">
-        <v>3.639913639044776</v>
+        <v>1.801842997380009</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.3975976029239</v>
+        <v>17.88656768203613</v>
       </c>
       <c r="M24">
-        <v>18.6303138176638</v>
+        <v>21.78952210622517</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.85352579044729</v>
+        <v>21.9255568590406</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.458800465124556</v>
+        <v>10.19456427923819</v>
       </c>
       <c r="E25">
-        <v>29.24803874209861</v>
+        <v>53.29872933265363</v>
       </c>
       <c r="F25">
-        <v>48.4639083421573</v>
+        <v>73.56735624716505</v>
       </c>
       <c r="G25">
-        <v>3.655326512464335</v>
+        <v>1.8775106109751</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.00129330054927</v>
+        <v>15.77529498868375</v>
       </c>
       <c r="M25">
-        <v>18.30313995596493</v>
+        <v>19.26072686120913</v>
       </c>
       <c r="N25">
         <v>0</v>
